--- a/296-sfe-mise-en-cohérence-avec-lannexe-ins/ig/StructureDefinition-esms-consent.xlsx
+++ b/296-sfe-mise-en-cohérence-avec-lannexe-ins/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T09:28:48+00:00</t>
+    <t>2024-12-19T09:49:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/296-sfe-mise-en-cohérence-avec-lannexe-ins/ig/StructureDefinition-esms-consent.xlsx
+++ b/296-sfe-mise-en-cohérence-avec-lannexe-ins/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T09:49:37+00:00</t>
+    <t>2024-12-19T10:03:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/296-sfe-mise-en-cohérence-avec-lannexe-ins/ig/StructureDefinition-esms-consent.xlsx
+++ b/296-sfe-mise-en-cohérence-avec-lannexe-ins/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T10:03:13+00:00</t>
+    <t>2024-12-19T10:40:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
